--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B63" s="65">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B65" s="65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B105" s="65">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="B107" s="65">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
